--- a/datas/boston-house-prices/housing.xlsx
+++ b/datas/boston-house-prices/housing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -62,32 +62,375 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -110,9 +453,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -120,11 +705,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,17 +1044,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N507"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -527,7 +1166,7 @@
         <v>6.421</v>
       </c>
       <c r="G3">
-        <v>78.90000000000001</v>
+        <v>78.9</v>
       </c>
       <c r="H3">
         <v>4.9671</v>
@@ -545,7 +1184,7 @@
         <v>396.9</v>
       </c>
       <c r="M3">
-        <v>9.140000000000001</v>
+        <v>9.14</v>
       </c>
       <c r="N3">
         <v>21.6</v>
@@ -729,7 +1368,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
-        <v>0.08828999999999999</v>
+        <v>0.08829</v>
       </c>
       <c r="B8">
         <v>12.5</v>
@@ -747,7 +1386,7 @@
         <v>6.012</v>
       </c>
       <c r="G8">
-        <v>66.59999999999999</v>
+        <v>66.6</v>
       </c>
       <c r="H8">
         <v>5.5605</v>
@@ -791,7 +1430,7 @@
         <v>6.172</v>
       </c>
       <c r="G9">
-        <v>96.09999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="H9">
         <v>5.9505</v>
@@ -879,7 +1518,7 @@
         <v>6.004</v>
       </c>
       <c r="G11">
-        <v>85.90000000000001</v>
+        <v>85.9</v>
       </c>
       <c r="H11">
         <v>6.5921</v>
@@ -967,7 +1606,7 @@
         <v>6.009</v>
       </c>
       <c r="G13">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="H13">
         <v>6.2267</v>
@@ -1043,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1081,13 +1720,13 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
-        <v>0.6379600000000001</v>
+        <v>0.63796</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1131,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1161,7 +1800,7 @@
         <v>395.62</v>
       </c>
       <c r="M17">
-        <v>8.470000000000001</v>
+        <v>8.47</v>
       </c>
       <c r="N17">
         <v>19.9</v>
@@ -1175,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1219,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1263,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1307,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1351,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1363,7 +2002,7 @@
         <v>5.57</v>
       </c>
       <c r="G22">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="H22">
         <v>3.7979</v>
@@ -1389,13 +2028,13 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
-        <v>0.8520399999999999</v>
+        <v>0.85204</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1439,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1477,13 +2116,13 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
-        <v>0.9884299999999999</v>
+        <v>0.98843</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1527,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1539,7 +2178,7 @@
         <v>5.924</v>
       </c>
       <c r="G26">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="H26">
         <v>4.3996</v>
@@ -1571,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1615,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1653,13 +2292,13 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>0.9557700000000001</v>
+        <v>0.95577</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1703,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1715,7 +2354,7 @@
         <v>6.495</v>
       </c>
       <c r="G30">
-        <v>94.40000000000001</v>
+        <v>94.4</v>
       </c>
       <c r="H30">
         <v>4.4547</v>
@@ -1747,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1791,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1803,7 +2442,7 @@
         <v>5.713</v>
       </c>
       <c r="G32">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="H32">
         <v>4.233</v>
@@ -1835,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1879,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1923,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1967,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>8.140000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1979,7 +2618,7 @@
         <v>6.096</v>
       </c>
       <c r="G36">
-        <v>96.90000000000001</v>
+        <v>96.9</v>
       </c>
       <c r="H36">
         <v>3.7598</v>
@@ -2225,7 +2864,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>0.03358999999999999</v>
+        <v>0.03359</v>
       </c>
       <c r="B42">
         <v>75</v>
@@ -2437,7 +3076,7 @@
         <v>389.39</v>
       </c>
       <c r="M46">
-        <v>9.550000000000001</v>
+        <v>9.55</v>
       </c>
       <c r="N46">
         <v>21.2</v>
@@ -2665,7 +3304,7 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>0.08872999999999999</v>
+        <v>0.08873</v>
       </c>
       <c r="B52">
         <v>21</v>
@@ -3097,7 +3736,7 @@
         <v>396.9</v>
       </c>
       <c r="M61">
-        <v>9.220000000000001</v>
+        <v>9.22</v>
       </c>
       <c r="N61">
         <v>19.6</v>
@@ -3167,7 +3806,7 @@
         <v>5.966</v>
       </c>
       <c r="G63">
-        <v>93.40000000000001</v>
+        <v>93.4</v>
       </c>
       <c r="H63">
         <v>6.8185</v>
@@ -3302,7 +3941,7 @@
         <v>59.5</v>
       </c>
       <c r="H66">
-        <v>9.222899999999999</v>
+        <v>9.2229</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3317,7 +3956,7 @@
         <v>393.24</v>
       </c>
       <c r="M66">
-        <v>8.050000000000001</v>
+        <v>8.05</v>
       </c>
       <c r="N66">
         <v>33</v>
@@ -3537,7 +4176,7 @@
         <v>396.9</v>
       </c>
       <c r="M71">
-        <v>8.789999999999999</v>
+        <v>8.79</v>
       </c>
       <c r="N71">
         <v>20.9</v>
@@ -3545,7 +4184,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72">
-        <v>0.08826000000000001</v>
+        <v>0.08826</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -3625,7 +4264,7 @@
         <v>376.94</v>
       </c>
       <c r="M73">
-        <v>9.880000000000001</v>
+        <v>9.88</v>
       </c>
       <c r="N73">
         <v>21.7</v>
@@ -3765,7 +4404,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77">
-        <v>0.09512000000000001</v>
+        <v>0.09512</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -3853,7 +4492,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79">
-        <v>0.08707000000000001</v>
+        <v>0.08707</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -4047,7 +4686,7 @@
         <v>6.619</v>
       </c>
       <c r="G83">
-        <v>70.40000000000001</v>
+        <v>70.4</v>
       </c>
       <c r="H83">
         <v>5.4007</v>
@@ -4197,7 +4836,7 @@
         <v>396.9</v>
       </c>
       <c r="M86">
-        <v>9.619999999999999</v>
+        <v>9.62</v>
       </c>
       <c r="N86">
         <v>23.9</v>
@@ -4443,7 +5082,7 @@
         <v>6.417</v>
       </c>
       <c r="G92">
-        <v>66.09999999999999</v>
+        <v>66.1</v>
       </c>
       <c r="H92">
         <v>3.0923</v>
@@ -4487,7 +5126,7 @@
         <v>6.405</v>
       </c>
       <c r="G93">
-        <v>73.90000000000001</v>
+        <v>73.9</v>
       </c>
       <c r="H93">
         <v>3.0921</v>
@@ -4505,7 +5144,7 @@
         <v>393.55</v>
       </c>
       <c r="M93">
-        <v>8.199999999999999</v>
+        <v>8.2</v>
       </c>
       <c r="N93">
         <v>22</v>
@@ -4707,7 +5346,7 @@
         <v>6.163</v>
       </c>
       <c r="G98">
-        <v>69.59999999999999</v>
+        <v>69.6</v>
       </c>
       <c r="H98">
         <v>3.4952</v>
@@ -4748,7 +5387,7 @@
         <v>0.445</v>
       </c>
       <c r="F99">
-        <v>8.069000000000001</v>
+        <v>8.069</v>
       </c>
       <c r="G99">
         <v>76</v>
@@ -4821,7 +5460,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101">
-        <v>0.06859999999999999</v>
+        <v>0.0686</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4883,7 +5522,7 @@
         <v>6.727</v>
       </c>
       <c r="G102">
-        <v>79.90000000000001</v>
+        <v>79.9</v>
       </c>
       <c r="H102">
         <v>2.7778</v>
@@ -4971,7 +5610,7 @@
         <v>6.405</v>
       </c>
       <c r="G104">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="H104">
         <v>2.7147</v>
@@ -5015,7 +5654,7 @@
         <v>6.137</v>
       </c>
       <c r="G105">
-        <v>87.40000000000001</v>
+        <v>87.4</v>
       </c>
       <c r="H105">
         <v>2.7147</v>
@@ -5147,7 +5786,7 @@
         <v>5.836</v>
       </c>
       <c r="G108">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="H108">
         <v>2.211</v>
@@ -5235,7 +5874,7 @@
         <v>6.474</v>
       </c>
       <c r="G110">
-        <v>97.09999999999999</v>
+        <v>97.1</v>
       </c>
       <c r="H110">
         <v>2.4329</v>
@@ -5367,7 +6006,7 @@
         <v>6.715</v>
       </c>
       <c r="G113">
-        <v>81.59999999999999</v>
+        <v>81.6</v>
       </c>
       <c r="H113">
         <v>2.6775</v>
@@ -5411,7 +6050,7 @@
         <v>5.913</v>
       </c>
       <c r="G114">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="H114">
         <v>2.3534</v>
@@ -5455,7 +6094,7 @@
         <v>6.092</v>
       </c>
       <c r="G115">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="H115">
         <v>2.548</v>
@@ -5631,7 +6270,7 @@
         <v>6.021</v>
       </c>
       <c r="G119">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="H119">
         <v>2.7474</v>
@@ -5675,7 +6314,7 @@
         <v>5.872</v>
       </c>
       <c r="G120">
-        <v>73.09999999999999</v>
+        <v>73.1</v>
       </c>
       <c r="H120">
         <v>2.4775</v>
@@ -5789,7 +6428,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123">
-        <v>0.07165000000000001</v>
+        <v>0.07165</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -5807,7 +6446,7 @@
         <v>6.004</v>
       </c>
       <c r="G123">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="H123">
         <v>2.1974</v>
@@ -5851,7 +6490,7 @@
         <v>5.961</v>
       </c>
       <c r="G124">
-        <v>92.90000000000001</v>
+        <v>92.9</v>
       </c>
       <c r="H124">
         <v>2.0869</v>
@@ -5921,7 +6560,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126">
-        <v>0.09848999999999999</v>
+        <v>0.09849</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -5983,7 +6622,7 @@
         <v>5.986</v>
       </c>
       <c r="G127">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="H127">
         <v>1.9929</v>
@@ -6027,7 +6666,7 @@
         <v>5.613</v>
       </c>
       <c r="G128">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="H128">
         <v>1.7572</v>
@@ -6203,7 +6842,7 @@
         <v>6.458</v>
       </c>
       <c r="G132">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="H132">
         <v>2.1185</v>
@@ -6291,7 +6930,7 @@
         <v>6.372</v>
       </c>
       <c r="G134">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="H134">
         <v>2.3274</v>
@@ -6335,7 +6974,7 @@
         <v>5.822</v>
       </c>
       <c r="G135">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="H135">
         <v>2.4699</v>
@@ -6361,7 +7000,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136">
-        <v>0.9761700000000001</v>
+        <v>0.97617</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -6379,7 +7018,7 @@
         <v>5.757</v>
       </c>
       <c r="G136">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="H136">
         <v>2.346</v>
@@ -6405,7 +7044,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137">
-        <v>0.5577800000000001</v>
+        <v>0.55778</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -6511,7 +7150,7 @@
         <v>6.454</v>
       </c>
       <c r="G139">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="H139">
         <v>1.8498</v>
@@ -6599,7 +7238,7 @@
         <v>6.151</v>
       </c>
       <c r="G141">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="H141">
         <v>1.6687</v>
@@ -6643,7 +7282,7 @@
         <v>6.174</v>
       </c>
       <c r="G142">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H142">
         <v>1.6119</v>
@@ -7039,7 +7678,7 @@
         <v>5.597</v>
       </c>
       <c r="G151">
-        <v>94.90000000000001</v>
+        <v>94.9</v>
       </c>
       <c r="H151">
         <v>1.5257</v>
@@ -7303,7 +7942,7 @@
         <v>6.152</v>
       </c>
       <c r="G157">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="H157">
         <v>1.7455</v>
@@ -7318,7 +7957,7 @@
         <v>14.7</v>
       </c>
       <c r="L157">
-        <v>88.01000000000001</v>
+        <v>88.01</v>
       </c>
       <c r="M157">
         <v>15.02</v>
@@ -7391,7 +8030,7 @@
         <v>6.943</v>
       </c>
       <c r="G159">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="H159">
         <v>1.8773</v>
@@ -7523,7 +8162,7 @@
         <v>6.25</v>
       </c>
       <c r="G162">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="H162">
         <v>1.7984</v>
@@ -7655,7 +8294,7 @@
         <v>8.375</v>
       </c>
       <c r="G165">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="H165">
         <v>2.162</v>
@@ -7875,7 +8514,7 @@
         <v>6.319</v>
       </c>
       <c r="G170">
-        <v>96.09999999999999</v>
+        <v>96.1</v>
       </c>
       <c r="H170">
         <v>2.1</v>
@@ -7963,7 +8602,7 @@
         <v>5.875</v>
       </c>
       <c r="G172">
-        <v>94.59999999999999</v>
+        <v>94.6</v>
       </c>
       <c r="H172">
         <v>2.4259</v>
@@ -8095,7 +8734,7 @@
         <v>6.416</v>
       </c>
       <c r="G175">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="H175">
         <v>2.6463</v>
@@ -8113,7 +8752,7 @@
         <v>395.5</v>
       </c>
       <c r="M175">
-        <v>9.039999999999999</v>
+        <v>9.04</v>
       </c>
       <c r="N175">
         <v>23.6</v>
@@ -8157,7 +8796,7 @@
         <v>393.23</v>
       </c>
       <c r="M176">
-        <v>9.640000000000001</v>
+        <v>9.64</v>
       </c>
       <c r="N176">
         <v>22.6</v>
@@ -8165,7 +8804,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177">
-        <v>0.06663999999999999</v>
+        <v>0.06664</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -8271,7 +8910,7 @@
         <v>6.315</v>
       </c>
       <c r="G179">
-        <v>73.40000000000001</v>
+        <v>73.4</v>
       </c>
       <c r="H179">
         <v>3.3175</v>
@@ -8297,7 +8936,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180">
-        <v>0.06642000000000001</v>
+        <v>0.06642</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -8315,7 +8954,7 @@
         <v>6.86</v>
       </c>
       <c r="G180">
-        <v>74.40000000000001</v>
+        <v>74.4</v>
       </c>
       <c r="H180">
         <v>2.9153</v>
@@ -8385,7 +9024,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182">
-        <v>0.06587999999999999</v>
+        <v>0.06588</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -8465,7 +9104,7 @@
         <v>396.9</v>
       </c>
       <c r="M183">
-        <v>9.449999999999999</v>
+        <v>9.45</v>
       </c>
       <c r="N183">
         <v>36.2</v>
@@ -8535,7 +9174,7 @@
         <v>6.563</v>
       </c>
       <c r="G185">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="H185">
         <v>2.847</v>
@@ -8649,7 +9288,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188">
-        <v>0.05602000000000001</v>
+        <v>0.05602</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -8913,7 +9552,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194">
-        <v>0.08663999999999999</v>
+        <v>0.08664</v>
       </c>
       <c r="B194">
         <v>45</v>
@@ -9169,7 +9808,7 @@
         <v>354.31</v>
       </c>
       <c r="M199">
-        <v>8.609999999999999</v>
+        <v>8.61</v>
       </c>
       <c r="N199">
         <v>30.3</v>
@@ -9456,7 +10095,7 @@
         <v>0.4161</v>
       </c>
       <c r="F206">
-        <v>8.034000000000001</v>
+        <v>8.034</v>
       </c>
       <c r="G206">
         <v>31.9</v>
@@ -9723,7 +10362,7 @@
         <v>5.96</v>
       </c>
       <c r="G212">
-        <v>92.09999999999999</v>
+        <v>92.1</v>
       </c>
       <c r="H212">
         <v>3.8771</v>
@@ -9767,7 +10406,7 @@
         <v>5.404</v>
       </c>
       <c r="G213">
-        <v>88.59999999999999</v>
+        <v>88.6</v>
       </c>
       <c r="H213">
         <v>3.665</v>
@@ -9873,7 +10512,7 @@
         <v>385.81</v>
       </c>
       <c r="M215">
-        <v>9.380000000000001</v>
+        <v>9.38</v>
       </c>
       <c r="N215">
         <v>28.1</v>
@@ -9899,7 +10538,7 @@
         <v>5.412</v>
       </c>
       <c r="G216">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="H216">
         <v>3.5875</v>
@@ -9961,7 +10600,7 @@
         <v>393.63</v>
       </c>
       <c r="M217">
-        <v>9.470000000000001</v>
+        <v>9.47</v>
       </c>
       <c r="N217">
         <v>25</v>
@@ -10031,7 +10670,7 @@
         <v>6.642</v>
       </c>
       <c r="G219">
-        <v>85.09999999999999</v>
+        <v>85.1</v>
       </c>
       <c r="H219">
         <v>3.4211</v>
@@ -10119,7 +10758,7 @@
         <v>6.373</v>
       </c>
       <c r="G221">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="H221">
         <v>3.3633</v>
@@ -10181,7 +10820,7 @@
         <v>391.7</v>
       </c>
       <c r="M222">
-        <v>9.710000000000001</v>
+        <v>9.71</v>
       </c>
       <c r="N222">
         <v>26.7</v>
@@ -10424,7 +11063,7 @@
         <v>0.504</v>
       </c>
       <c r="F228">
-        <v>8.039999999999999</v>
+        <v>8.04</v>
       </c>
       <c r="G228">
         <v>86.5</v>
@@ -10471,7 +11110,7 @@
         <v>7.163</v>
       </c>
       <c r="G229">
-        <v>79.90000000000001</v>
+        <v>79.9</v>
       </c>
       <c r="H229">
         <v>3.2157</v>
@@ -10603,7 +11242,7 @@
         <v>5.981</v>
       </c>
       <c r="G232">
-        <v>68.09999999999999</v>
+        <v>68.1</v>
       </c>
       <c r="H232">
         <v>3.6715</v>
@@ -10647,7 +11286,7 @@
         <v>7.412</v>
       </c>
       <c r="G233">
-        <v>76.90000000000001</v>
+        <v>76.9</v>
       </c>
       <c r="H233">
         <v>3.6715</v>
@@ -10735,7 +11374,7 @@
         <v>8.247</v>
       </c>
       <c r="G235">
-        <v>70.40000000000001</v>
+        <v>70.4</v>
       </c>
       <c r="H235">
         <v>3.6519</v>
@@ -10797,7 +11436,7 @@
         <v>360.2</v>
       </c>
       <c r="M236">
-        <v>8.050000000000001</v>
+        <v>8.05</v>
       </c>
       <c r="N236">
         <v>29</v>
@@ -10885,7 +11524,7 @@
         <v>388.45</v>
       </c>
       <c r="M238">
-        <v>9.539999999999999</v>
+        <v>9.54</v>
       </c>
       <c r="N238">
         <v>25.1</v>
@@ -10911,7 +11550,7 @@
         <v>7.358</v>
       </c>
       <c r="G239">
-        <v>71.59999999999999</v>
+        <v>71.6</v>
       </c>
       <c r="H239">
         <v>4.148</v>
@@ -10981,7 +11620,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241">
-        <v>0.09252000000000001</v>
+        <v>0.09252</v>
       </c>
       <c r="B241">
         <v>30</v>
@@ -11087,7 +11726,7 @@
         <v>6.095</v>
       </c>
       <c r="G243">
-        <v>65.09999999999999</v>
+        <v>65.1</v>
       </c>
       <c r="H243">
         <v>6.3361</v>
@@ -11553,7 +12192,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254">
-        <v>0.08221000000000001</v>
+        <v>0.08221</v>
       </c>
       <c r="B254">
         <v>22</v>
@@ -11574,7 +12213,7 @@
         <v>6.8</v>
       </c>
       <c r="H254">
-        <v>8.906700000000001</v>
+        <v>8.9067</v>
       </c>
       <c r="I254">
         <v>7</v>
@@ -11618,7 +12257,7 @@
         <v>8.4</v>
       </c>
       <c r="H255">
-        <v>8.906700000000001</v>
+        <v>8.9067</v>
       </c>
       <c r="I255">
         <v>7</v>
@@ -11788,10 +12427,10 @@
         <v>0.647</v>
       </c>
       <c r="F259">
-        <v>8.704000000000001</v>
+        <v>8.704</v>
       </c>
       <c r="G259">
-        <v>86.90000000000001</v>
+        <v>86.9</v>
       </c>
       <c r="H259">
         <v>1.801</v>
@@ -11905,7 +12544,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262">
-        <v>0.5401100000000001</v>
+        <v>0.54011</v>
       </c>
       <c r="B262">
         <v>20</v>
@@ -11949,7 +12588,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263">
-        <v>0.5341199999999999</v>
+        <v>0.53412</v>
       </c>
       <c r="B263">
         <v>20</v>
@@ -11967,7 +12606,7 @@
         <v>7.52</v>
       </c>
       <c r="G263">
-        <v>89.40000000000001</v>
+        <v>89.4</v>
       </c>
       <c r="H263">
         <v>2.1398</v>
@@ -11993,7 +12632,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264">
-        <v>0.5201399999999999</v>
+        <v>0.52014</v>
       </c>
       <c r="B264">
         <v>20</v>
@@ -12081,7 +12720,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266">
-        <v>0.5500699999999999</v>
+        <v>0.55007</v>
       </c>
       <c r="B266">
         <v>20</v>
@@ -12099,7 +12738,7 @@
         <v>7.206</v>
       </c>
       <c r="G266">
-        <v>91.59999999999999</v>
+        <v>91.6</v>
       </c>
       <c r="H266">
         <v>1.9301</v>
@@ -12187,7 +12826,7 @@
         <v>7.014</v>
       </c>
       <c r="G268">
-        <v>84.59999999999999</v>
+        <v>84.6</v>
       </c>
       <c r="H268">
         <v>2.1329</v>
@@ -12228,7 +12867,7 @@
         <v>0.575</v>
       </c>
       <c r="F269">
-        <v>8.297000000000001</v>
+        <v>8.297</v>
       </c>
       <c r="G269">
         <v>67</v>
@@ -12301,7 +12940,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271">
-        <v>0.09064999999999999</v>
+        <v>0.09065</v>
       </c>
       <c r="B271">
         <v>20</v>
@@ -12653,7 +13292,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279">
-        <v>0.06127000000000001</v>
+        <v>0.06127</v>
       </c>
       <c r="B279">
         <v>40</v>
@@ -12697,7 +13336,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280">
-        <v>0.07977999999999999</v>
+        <v>0.07978</v>
       </c>
       <c r="B280">
         <v>40</v>
@@ -12961,7 +13600,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286">
-        <v>0.009059999999999999</v>
+        <v>0.00906</v>
       </c>
       <c r="B286">
         <v>90</v>
@@ -13401,7 +14040,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296">
-        <v>0.08198999999999999</v>
+        <v>0.08199</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -13577,7 +14216,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300">
-        <v>0.06466000000000001</v>
+        <v>0.06466</v>
       </c>
       <c r="B300">
         <v>70</v>
@@ -13753,7 +14392,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304">
-        <v>0.09266000000000001</v>
+        <v>0.09266</v>
       </c>
       <c r="B304">
         <v>34</v>
@@ -13947,7 +14586,7 @@
         <v>7.42</v>
       </c>
       <c r="G308">
-        <v>71.90000000000001</v>
+        <v>71.9</v>
       </c>
       <c r="H308">
         <v>3.0992</v>
@@ -14097,7 +14736,7 @@
         <v>396.24</v>
       </c>
       <c r="M311">
-        <v>9.970000000000001</v>
+        <v>9.97</v>
       </c>
       <c r="N311">
         <v>20.3</v>
@@ -14149,7 +14788,7 @@
     </row>
     <row r="313" spans="1:14">
       <c r="A313">
-        <v>0.7904100000000001</v>
+        <v>0.79041</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -14211,7 +14850,7 @@
         <v>6.023</v>
       </c>
       <c r="G314">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="H314">
         <v>2.834</v>
@@ -14317,7 +14956,7 @@
         <v>395.69</v>
       </c>
       <c r="M316">
-        <v>9.279999999999999</v>
+        <v>9.28</v>
       </c>
       <c r="N316">
         <v>23.8</v>
@@ -14897,7 +15536,7 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330">
-        <v>0.06617000000000001</v>
+        <v>0.06617</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -14933,7 +15572,7 @@
         <v>382.44</v>
       </c>
       <c r="M330">
-        <v>9.970000000000001</v>
+        <v>9.97</v>
       </c>
       <c r="N330">
         <v>19.3</v>
@@ -14941,7 +15580,7 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331">
-        <v>0.06723999999999999</v>
+        <v>0.06724</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -14985,7 +15624,7 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332">
-        <v>0.04543999999999999</v>
+        <v>0.04544</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -15285,7 +15924,7 @@
         <v>396.9</v>
       </c>
       <c r="M338">
-        <v>9.800000000000001</v>
+        <v>9.8</v>
       </c>
       <c r="N338">
         <v>19.5</v>
@@ -15461,7 +16100,7 @@
         <v>396.9</v>
       </c>
       <c r="M342">
-        <v>9.289999999999999</v>
+        <v>9.29</v>
       </c>
       <c r="N342">
         <v>18.7</v>
@@ -15754,7 +16393,7 @@
         <v>27.7</v>
       </c>
       <c r="H349">
-        <v>8.535299999999999</v>
+        <v>8.5353</v>
       </c>
       <c r="I349">
         <v>4</v>
@@ -15798,7 +16437,7 @@
         <v>29.7</v>
       </c>
       <c r="H350">
-        <v>8.343999999999999</v>
+        <v>8.344</v>
       </c>
       <c r="I350">
         <v>4</v>
@@ -15865,7 +16504,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352">
-        <v>0.06211000000000001</v>
+        <v>0.06211</v>
       </c>
       <c r="B352">
         <v>40</v>
@@ -16077,7 +16716,7 @@
         <v>382.8</v>
       </c>
       <c r="M356">
-        <v>8.050000000000001</v>
+        <v>8.05</v>
       </c>
       <c r="N356">
         <v>18.2</v>
@@ -16147,7 +16786,7 @@
         <v>6.212</v>
       </c>
       <c r="G358">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="H358">
         <v>2.1222</v>
@@ -16235,7 +16874,7 @@
         <v>6.127</v>
       </c>
       <c r="G360">
-        <v>83.40000000000001</v>
+        <v>83.4</v>
       </c>
       <c r="H360">
         <v>2.7227</v>
@@ -16305,7 +16944,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362">
-        <v>4.541919999999999</v>
+        <v>4.54192</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -16367,7 +17006,7 @@
         <v>6.251</v>
       </c>
       <c r="G363">
-        <v>91.09999999999999</v>
+        <v>91.1</v>
       </c>
       <c r="H363">
         <v>2.2955</v>
@@ -16496,10 +17135,10 @@
         <v>0.718</v>
       </c>
       <c r="F366">
-        <v>8.779999999999999</v>
+        <v>8.78</v>
       </c>
       <c r="G366">
-        <v>82.90000000000001</v>
+        <v>82.9</v>
       </c>
       <c r="H366">
         <v>1.9047</v>
@@ -16543,7 +17182,7 @@
         <v>3.561</v>
       </c>
       <c r="G367">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="H367">
         <v>1.6132</v>
@@ -16587,7 +17226,7 @@
         <v>4.963</v>
       </c>
       <c r="G368">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="H368">
         <v>1.7523</v>
@@ -16657,7 +17296,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370">
-        <v>4.898219999999999</v>
+        <v>4.89822</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -16701,7 +17340,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371">
-        <v>5.669980000000001</v>
+        <v>5.66998</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -16825,7 +17464,7 @@
         <v>366.15</v>
       </c>
       <c r="M373">
-        <v>9.529999999999999</v>
+        <v>9.53</v>
       </c>
       <c r="N373">
         <v>50</v>
@@ -16833,7 +17472,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374">
-        <v>8.267250000000001</v>
+        <v>8.26725</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -16851,7 +17490,7 @@
         <v>5.875</v>
       </c>
       <c r="G374">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="H374">
         <v>1.1296</v>
@@ -16869,7 +17508,7 @@
         <v>347.88</v>
       </c>
       <c r="M374">
-        <v>8.880000000000001</v>
+        <v>8.88</v>
       </c>
       <c r="N374">
         <v>50</v>
@@ -16983,7 +17622,7 @@
         <v>7.313</v>
       </c>
       <c r="G377">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="H377">
         <v>1.3163</v>
@@ -17185,7 +17824,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382">
-        <v>88.97620000000001</v>
+        <v>88.9762</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -17203,7 +17842,7 @@
         <v>6.968</v>
       </c>
       <c r="G382">
-        <v>91.90000000000001</v>
+        <v>91.9</v>
       </c>
       <c r="H382">
         <v>1.4165</v>
@@ -17247,7 +17886,7 @@
         <v>6.545</v>
       </c>
       <c r="G383">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="H383">
         <v>1.5192</v>
@@ -17400,7 +18039,7 @@
         <v>30.63</v>
       </c>
       <c r="N386">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="387" spans="1:14">
@@ -17423,7 +18062,7 @@
         <v>5.277</v>
       </c>
       <c r="G387">
-        <v>98.09999999999999</v>
+        <v>98.1</v>
       </c>
       <c r="H387">
         <v>1.4261</v>
@@ -17599,7 +18238,7 @@
         <v>5.39</v>
       </c>
       <c r="G391">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="H391">
         <v>1.7281</v>
@@ -17752,7 +18391,7 @@
         <v>25.68</v>
       </c>
       <c r="N394">
-        <v>9.699999999999999</v>
+        <v>9.7</v>
       </c>
     </row>
     <row r="395" spans="1:14">
@@ -17769,13 +18408,13 @@
         <v>0</v>
       </c>
       <c r="E395">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F395">
         <v>6.193</v>
       </c>
       <c r="G395">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="H395">
         <v>1.7912</v>
@@ -17813,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="E396">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F396">
         <v>5.887</v>
@@ -17845,7 +18484,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397">
-        <v>8.716749999999999</v>
+        <v>8.71675</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -17857,7 +18496,7 @@
         <v>0</v>
       </c>
       <c r="E397">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F397">
         <v>6.471</v>
@@ -17901,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="E398">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F398">
         <v>6.405</v>
@@ -17945,13 +18584,13 @@
         <v>0</v>
       </c>
       <c r="E399">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F399">
         <v>5.747</v>
       </c>
       <c r="G399">
-        <v>98.90000000000001</v>
+        <v>98.9</v>
       </c>
       <c r="H399">
         <v>1.6334</v>
@@ -17989,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F400">
         <v>5.453</v>
@@ -18021,7 +18660,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401">
-        <v>9.916550000000001</v>
+        <v>9.91655</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -18033,7 +18672,7 @@
         <v>0</v>
       </c>
       <c r="E401">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F401">
         <v>5.852</v>
@@ -18077,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="E402">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F402">
         <v>5.987</v>
@@ -18121,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="E403">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F403">
         <v>6.343</v>
@@ -18165,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="E404">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F404">
         <v>6.404</v>
@@ -18209,7 +18848,7 @@
         <v>0</v>
       </c>
       <c r="E405">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F405">
         <v>5.349</v>
@@ -18236,7 +18875,7 @@
         <v>19.77</v>
       </c>
       <c r="N405">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="406" spans="1:14">
@@ -18253,13 +18892,13 @@
         <v>0</v>
       </c>
       <c r="E406">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F406">
         <v>5.531</v>
       </c>
       <c r="G406">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="H406">
         <v>1.6074</v>
@@ -18297,7 +18936,7 @@
         <v>0</v>
       </c>
       <c r="E407">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F407">
         <v>5.683</v>
@@ -18435,7 +19074,7 @@
         <v>5.617</v>
       </c>
       <c r="G410">
-        <v>97.90000000000001</v>
+        <v>97.9</v>
       </c>
       <c r="H410">
         <v>1.4547</v>
@@ -18693,7 +19332,7 @@
         <v>0</v>
       </c>
       <c r="E416">
-        <v>0.6929999999999999</v>
+        <v>0.693</v>
       </c>
       <c r="F416">
         <v>4.519</v>
@@ -18831,7 +19470,7 @@
         <v>5.304</v>
       </c>
       <c r="G419">
-        <v>89.09999999999999</v>
+        <v>89.1</v>
       </c>
       <c r="H419">
         <v>1.6475</v>
@@ -18896,7 +19535,7 @@
         <v>20.62</v>
       </c>
       <c r="N420">
-        <v>8.800000000000001</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="421" spans="1:14">
@@ -18989,7 +19628,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423">
-        <v>7.022589999999999</v>
+        <v>7.02259</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -19051,7 +19690,7 @@
         <v>5.648</v>
       </c>
       <c r="G424">
-        <v>87.59999999999999</v>
+        <v>87.6</v>
       </c>
       <c r="H424">
         <v>1.9512</v>
@@ -19095,7 +19734,7 @@
         <v>6.103</v>
       </c>
       <c r="G425">
-        <v>85.09999999999999</v>
+        <v>85.1</v>
       </c>
       <c r="H425">
         <v>2.0218</v>
@@ -19121,7 +19760,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426">
-        <v>8.792119999999999</v>
+        <v>8.79212</v>
       </c>
       <c r="B426">
         <v>0</v>
@@ -19139,7 +19778,7 @@
         <v>5.565</v>
       </c>
       <c r="G426">
-        <v>70.59999999999999</v>
+        <v>70.6</v>
       </c>
       <c r="H426">
         <v>2.0635</v>
@@ -19183,7 +19822,7 @@
         <v>5.896</v>
       </c>
       <c r="G427">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="H427">
         <v>1.9096</v>
@@ -19204,7 +19843,7 @@
         <v>24.39</v>
       </c>
       <c r="N427">
-        <v>8.300000000000001</v>
+        <v>8.3</v>
       </c>
     </row>
     <row r="428" spans="1:14">
@@ -19315,7 +19954,7 @@
         <v>6.193</v>
       </c>
       <c r="G430">
-        <v>78.09999999999999</v>
+        <v>78.1</v>
       </c>
       <c r="H430">
         <v>1.9356</v>
@@ -19341,7 +19980,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431">
-        <v>9.338889999999999</v>
+        <v>9.33889</v>
       </c>
       <c r="B431">
         <v>0</v>
@@ -19359,7 +19998,7 @@
         <v>6.38</v>
       </c>
       <c r="G431">
-        <v>95.59999999999999</v>
+        <v>95.6</v>
       </c>
       <c r="H431">
         <v>1.9682</v>
@@ -19403,7 +20042,7 @@
         <v>6.348</v>
       </c>
       <c r="G432">
-        <v>86.09999999999999</v>
+        <v>86.1</v>
       </c>
       <c r="H432">
         <v>2.0527</v>
@@ -19535,7 +20174,7 @@
         <v>6.436</v>
       </c>
       <c r="G435">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="H435">
         <v>2.3158</v>
@@ -19623,7 +20262,7 @@
         <v>6.629</v>
       </c>
       <c r="G437">
-        <v>94.59999999999999</v>
+        <v>94.6</v>
       </c>
       <c r="H437">
         <v>2.1247</v>
@@ -19732,7 +20371,7 @@
         <v>26.45</v>
       </c>
       <c r="N439">
-        <v>8.699999999999999</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="440" spans="1:14">
@@ -19755,7 +20394,7 @@
         <v>5.935</v>
       </c>
       <c r="G440">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="H440">
         <v>1.8206</v>
@@ -19799,7 +20438,7 @@
         <v>5.627</v>
       </c>
       <c r="G441">
-        <v>93.90000000000001</v>
+        <v>93.9</v>
       </c>
       <c r="H441">
         <v>1.8172</v>
@@ -19843,7 +20482,7 @@
         <v>5.818</v>
       </c>
       <c r="G442">
-        <v>92.40000000000001</v>
+        <v>92.4</v>
       </c>
       <c r="H442">
         <v>1.8662</v>
@@ -20019,7 +20658,7 @@
         <v>5.854</v>
       </c>
       <c r="G446">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="H446">
         <v>1.8956</v>
@@ -20089,7 +20728,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448">
-        <v>6.288069999999999</v>
+        <v>6.28807</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -20107,7 +20746,7 @@
         <v>6.341</v>
       </c>
       <c r="G448">
-        <v>96.40000000000001</v>
+        <v>96.4</v>
       </c>
       <c r="H448">
         <v>2.072</v>
@@ -20133,7 +20772,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449">
-        <v>9.924849999999999</v>
+        <v>9.92485</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -20151,7 +20790,7 @@
         <v>6.251</v>
       </c>
       <c r="G449">
-        <v>96.59999999999999</v>
+        <v>96.6</v>
       </c>
       <c r="H449">
         <v>2.198</v>
@@ -20177,7 +20816,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450">
-        <v>9.329089999999999</v>
+        <v>9.32909</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -20283,7 +20922,7 @@
         <v>6.749</v>
       </c>
       <c r="G452">
-        <v>92.59999999999999</v>
+        <v>92.6</v>
       </c>
       <c r="H452">
         <v>2.3236</v>
@@ -20397,7 +21036,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455">
-        <v>8.248089999999999</v>
+        <v>8.24809</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -20441,7 +21080,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456">
-        <v>9.513630000000001</v>
+        <v>9.51363</v>
       </c>
       <c r="B456">
         <v>0</v>
@@ -20459,7 +21098,7 @@
         <v>6.728</v>
       </c>
       <c r="G456">
-        <v>94.09999999999999</v>
+        <v>94.1</v>
       </c>
       <c r="H456">
         <v>2.4961</v>
@@ -20529,7 +21168,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458">
-        <v>4.668830000000001</v>
+        <v>4.66883</v>
       </c>
       <c r="B458">
         <v>0</v>
@@ -20547,7 +21186,7 @@
         <v>5.976</v>
       </c>
       <c r="G458">
-        <v>87.90000000000001</v>
+        <v>87.9</v>
       </c>
       <c r="H458">
         <v>2.5806</v>
@@ -20679,7 +21318,7 @@
         <v>6.081</v>
       </c>
       <c r="G461">
-        <v>84.40000000000001</v>
+        <v>84.4</v>
       </c>
       <c r="H461">
         <v>2.7175</v>
@@ -20705,7 +21344,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462">
-        <v>4.812130000000001</v>
+        <v>4.81213</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -20767,7 +21406,7 @@
         <v>6.376</v>
       </c>
       <c r="G463">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="H463">
         <v>2.5671</v>
@@ -20855,7 +21494,7 @@
         <v>6.513</v>
       </c>
       <c r="G465">
-        <v>89.90000000000001</v>
+        <v>89.9</v>
       </c>
       <c r="H465">
         <v>2.8016</v>
@@ -20899,7 +21538,7 @@
         <v>6.209</v>
       </c>
       <c r="G466">
-        <v>65.40000000000001</v>
+        <v>65.4</v>
       </c>
       <c r="H466">
         <v>2.9634</v>
@@ -21013,7 +21652,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469">
-        <v>4.422280000000001</v>
+        <v>4.42228</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -21295,7 +21934,7 @@
         <v>6.98</v>
       </c>
       <c r="G475">
-        <v>67.59999999999999</v>
+        <v>67.6</v>
       </c>
       <c r="H475">
         <v>2.5329</v>
@@ -21339,7 +21978,7 @@
         <v>5.427</v>
       </c>
       <c r="G476">
-        <v>95.40000000000001</v>
+        <v>95.4</v>
       </c>
       <c r="H476">
         <v>2.4298</v>
@@ -21383,7 +22022,7 @@
         <v>6.162</v>
       </c>
       <c r="G477">
-        <v>97.40000000000001</v>
+        <v>97.4</v>
       </c>
       <c r="H477">
         <v>2.206</v>
@@ -21427,7 +22066,7 @@
         <v>6.484</v>
       </c>
       <c r="G478">
-        <v>93.59999999999999</v>
+        <v>93.6</v>
       </c>
       <c r="H478">
         <v>2.3053</v>
@@ -21585,7 +22224,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482">
-        <v>5.824009999999999</v>
+        <v>5.82401</v>
       </c>
       <c r="B482">
         <v>0</v>
@@ -21647,7 +22286,7 @@
         <v>6.75</v>
       </c>
       <c r="G483">
-        <v>74.90000000000001</v>
+        <v>74.9</v>
       </c>
       <c r="H483">
         <v>3.3317</v>
@@ -21893,7 +22532,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489">
-        <v>4.835669999999999</v>
+        <v>4.83567</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -22307,7 +22946,7 @@
         <v>5.39</v>
       </c>
       <c r="G498">
-        <v>72.90000000000001</v>
+        <v>72.9</v>
       </c>
       <c r="H498">
         <v>2.7986</v>
@@ -22351,7 +22990,7 @@
         <v>5.794</v>
       </c>
       <c r="G499">
-        <v>70.59999999999999</v>
+        <v>70.6</v>
       </c>
       <c r="H499">
         <v>2.8927</v>
@@ -22509,7 +23148,7 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503">
-        <v>0.06262999999999999</v>
+        <v>0.06263</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -22527,7 +23166,7 @@
         <v>6.593</v>
       </c>
       <c r="G503">
-        <v>69.09999999999999</v>
+        <v>69.1</v>
       </c>
       <c r="H503">
         <v>2.4786</v>
@@ -22729,5 +23368,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>